--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shaikh\Desktop\AI_project_ML_SFPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9732"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2117,41 +2117,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="24.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="3.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="133.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="21.44140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="15.109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="133.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2256,7 +2256,7 @@
       </c>
       <c r="AI1" s="1"/>
     </row>
-    <row r="2" spans="1:35" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>61</v>
       </c>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>69</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>75</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>83</v>
       </c>
@@ -2732,7 +2732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>92</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>97</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>106</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>114</v>
       </c>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>121</v>
       </c>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>126</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>134</v>
       </c>
@@ -3196,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>143</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>148</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>156</v>
       </c>
@@ -3409,7 +3409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>162</v>
       </c>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>170</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>176</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>184</v>
       </c>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>189</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>196</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>201</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>209</v>
       </c>
@@ -3950,7 +3950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>220</v>
       </c>
@@ -4083,7 +4083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>224</v>
       </c>
@@ -4151,7 +4151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>229</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>234</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -4358,7 +4358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>243</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>248</v>
       </c>
@@ -4494,7 +4494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>253</v>
       </c>
@@ -4571,7 +4571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>258</v>
       </c>
@@ -4636,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>263</v>
       </c>
@@ -4701,7 +4701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>268</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>272</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>278</v>
       </c>
@@ -4896,7 +4896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>283</v>
       </c>
@@ -4961,7 +4961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>289</v>
       </c>
@@ -5029,7 +5029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>294</v>
       </c>
@@ -5094,7 +5094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>299</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>304</v>
       </c>
@@ -5230,7 +5230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>309</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>314</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>319</v>
       </c>
@@ -5428,7 +5428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>324</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>329</v>
       </c>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>337</v>
       </c>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>342</v>
       </c>
@@ -5694,7 +5694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>346</v>
       </c>
@@ -5771,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>351</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>356</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>361</v>
       </c>
@@ -5984,7 +5984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>366</v>
       </c>
@@ -6049,7 +6049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>371</v>
       </c>
@@ -6114,7 +6114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>376</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>381</v>
       </c>
@@ -6244,7 +6244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>386</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>394</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>399</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>405</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>409</v>
       </c>
@@ -6596,7 +6596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>413</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>417</v>
       </c>
@@ -6735,7 +6735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>423</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>427</v>
       </c>
@@ -6874,7 +6874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>431</v>
       </c>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>435</v>
       </c>
@@ -7010,7 +7010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>439</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>444</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>447</v>
       </c>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>455</v>
       </c>
@@ -7279,7 +7279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>460</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>465</v>
       </c>
@@ -7409,7 +7409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>469</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>474</v>
       </c>
@@ -7539,7 +7539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>478</v>
       </c>
@@ -7598,7 +7598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>484</v>
       </c>
@@ -7663,7 +7663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>489</v>
       </c>
@@ -7728,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>494</v>
       </c>
@@ -7796,7 +7796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>498</v>
       </c>
@@ -7861,7 +7861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>503</v>
       </c>
@@ -7926,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>507</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>511</v>
       </c>
@@ -8071,7 +8071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>517</v>
       </c>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>522</v>
       </c>
@@ -8204,7 +8204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>527</v>
       </c>
@@ -8272,7 +8272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>533</v>
       </c>
@@ -8337,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>538</v>
       </c>
@@ -8405,7 +8405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>544</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>548</v>
       </c>
@@ -8538,7 +8538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>552</v>
       </c>
@@ -8606,7 +8606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>556</v>
       </c>
@@ -8674,7 +8674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>561</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>565</v>
       </c>
@@ -8816,7 +8816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>570</v>
       </c>
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>576</v>
       </c>
